--- a/biology/Zoologie/Atelopus_vogli/Atelopus_vogli.xlsx
+++ b/biology/Zoologie/Atelopus_vogli/Atelopus_vogli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus vogli est une espèce éteinte d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus vogli est une espèce éteinte d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était endémique du Venezuela[1]. Elle se rencontrait  à Maracay en Aragua et à Montalbán au Carabobo vers 700 m d'altitude sur le versant Sud de la Cordillère de la Costa.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était endémique du Venezuela. Elle se rencontrait  à Maracay en Aragua et à Montalbán au Carabobo vers 700 m d'altitude sur le versant Sud de la Cordillère de la Costa.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesuraient de 21,0 à 29,3 mm et les femelles de 33,4 à 39,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesuraient de 21,0 à 29,3 mm et les femelles de 33,4 à 39,0 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cornelius Vogl (1884–1959)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cornelius Vogl (1884–1959).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Müller, 1934 : Über eine neue Rasse von Atelopus cruciger (Licht. u. Marts.) von Venezuela. Zoologischer Anzeiger, vol. 108, p. 145-155.</t>
         </is>
